--- a/src/main/java/com/ljy/题目列表.xlsx
+++ b/src/main/java/com/ljy/题目列表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1659,20 +1659,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H464"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.625" customWidth="1"/>
-    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="97.375" customWidth="1"/>
-    <col min="4" max="4" width="36.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97.33203125" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="36.625" customWidth="1"/>
-    <col min="8" max="8" width="21.375" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3332,7 +3332,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" ht="28.8">
       <c r="A73" s="1" t="s">
         <v>95</v>
       </c>
@@ -7800,7 +7800,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7813,7 +7813,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
